--- a/codes/Form/bowler_data_Smat_form_score.xlsx
+++ b/codes/Form/bowler_data_Smat_form_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/codes/Form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E26292-6BE9-BD4F-89FA-48FCE508E1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B88819-CBFE-734F-B081-1A6465D282F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Player</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Zeeshan Ansari</t>
+  </si>
+  <si>
+    <t>XC Bartlett</t>
+  </si>
+  <si>
+    <t>E Malinga</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,34 +531,34 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>27.1</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>18.63</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2">
-        <v>7.54</v>
+        <v>7.42</v>
       </c>
       <c r="J2" s="2">
-        <v>14.8</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -564,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
@@ -573,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.1179517521000002</v>
+        <v>-4.810821197000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -684,34 +690,34 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>22.5</v>
+        <v>27.1</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G5" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2">
-        <v>26.85</v>
+        <v>18.63</v>
       </c>
       <c r="I5" s="2">
-        <v>8.23</v>
+        <v>7.54</v>
       </c>
       <c r="J5" s="2">
-        <v>19.5</v>
+        <v>14.8</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -723,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -732,39 +738,39 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>-1.51207914</v>
+        <v>0.1179517521000002</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>188</v>
+      </c>
+      <c r="G6" s="2">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
       <c r="H6" s="2">
-        <v>52</v>
+        <v>26.85</v>
       </c>
       <c r="I6" s="2">
-        <v>7.42</v>
+        <v>8.23</v>
       </c>
       <c r="J6" s="2">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -776,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="N6" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>-4.810821197000001</v>
+        <v>-1.51207914</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -841,10 +847,113 @@
         <v>-9.0830310999999995</v>
       </c>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>333</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>27.75</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J8" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="2">
+        <v>8</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>-0.60655534550000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>14.18</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="2">
+        <v>9</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>-9.7912563190000004</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q8">
-    <sortCondition descending="1" ref="Q1:Q8"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>